--- a/biology/Médecine/Artère_vertébrale/Artère_vertébrale.xlsx
+++ b/biology/Médecine/Artère_vertébrale/Artère_vertébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_vert%C3%A9brale</t>
+          <t>Artère_vertébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères vertébrales sont des artères systémiques amenant du sang oxygéné vers la tête et le cerveau.
 On compte une artère vertébrale droite cheminant dans la partie droite du cou et une vertébrale gauche cheminant dans la partie gauche.
@@ -488,7 +500,7 @@
 Cette artère basilaire monte au-devant du pont (protubérance du tronc cérébral) et se divise en deux cérébrales postérieures, qui ferment vers l'arrière le polygone de Willis, au niveau des communicantes postérieures.
 Cette artère vertébrale vascularise donc le cerveau postérieur, le cervelet et le tronc cérébral (via l'artère cérébelleuse postéro-inférieure et le tronc basilaire), ainsi que la moelle spinale cervicale, par l'intermédiaire de ses collatérales : les artères spinales antérieure et postérieure.
 Sur le schéma, on voit l'aspect tortueux de la terminaison de l'artère après le passage du canal transverse de l'atlas, obliquant vers l'arrière puis revenant vers l'avant du tronc cérébral après être entré dans le canal vertébral.
-Point de repère pour trouver l'artère vertébrale, elle se situe à l'angle de Nunziante Ippolito qui se trouve entre le muscle scalène antérieur et le muscle long du cou[1],[2].
+Point de repère pour trouver l'artère vertébrale, elle se situe à l'angle de Nunziante Ippolito qui se trouve entre le muscle scalène antérieur et le muscle long du cou,.
 </t>
         </is>
       </c>
